--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col4a3-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col4a3-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,16 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Col4a3</t>
   </si>
   <si>
     <t>Itgav</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.3806263333333333</v>
+        <v>0.219276</v>
       </c>
       <c r="H2">
-        <v>1.141879</v>
+        <v>0.6578280000000001</v>
       </c>
       <c r="I2">
-        <v>0.3809735272077954</v>
+        <v>0.2435782033076793</v>
       </c>
       <c r="J2">
-        <v>0.3809735272077954</v>
+        <v>0.2435782033076794</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N2">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O2">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P2">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q2">
-        <v>3.806701180492111</v>
+        <v>3.980524464108</v>
       </c>
       <c r="R2">
-        <v>34.260310624429</v>
+        <v>35.82472017697201</v>
       </c>
       <c r="S2">
-        <v>0.01352979573341219</v>
+        <v>0.01496713761200642</v>
       </c>
       <c r="T2">
-        <v>0.01352979573341219</v>
+        <v>0.01496713761200642</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.3806263333333333</v>
+        <v>0.219276</v>
       </c>
       <c r="H3">
-        <v>1.141879</v>
+        <v>0.6578280000000001</v>
       </c>
       <c r="I3">
-        <v>0.3809735272077954</v>
+        <v>0.2435782033076793</v>
       </c>
       <c r="J3">
-        <v>0.3809735272077954</v>
+        <v>0.2435782033076794</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>214.143257</v>
       </c>
       <c r="O3">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P3">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q3">
-        <v>27.16952090665589</v>
+        <v>15.652158940644</v>
       </c>
       <c r="R3">
-        <v>244.525688159903</v>
+        <v>140.869430465796</v>
       </c>
       <c r="S3">
-        <v>0.09656604251616221</v>
+        <v>0.0588535553297027</v>
       </c>
       <c r="T3">
-        <v>0.09656604251616226</v>
+        <v>0.05885355532970272</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.3806263333333333</v>
+        <v>0.219276</v>
       </c>
       <c r="H4">
-        <v>1.141879</v>
+        <v>0.6578280000000001</v>
       </c>
       <c r="I4">
-        <v>0.3809735272077954</v>
+        <v>0.2435782033076793</v>
       </c>
       <c r="J4">
-        <v>0.3809735272077954</v>
+        <v>0.2435782033076794</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N4">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O4">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P4">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q4">
-        <v>26.56918956807133</v>
+        <v>14.48750172996</v>
       </c>
       <c r="R4">
-        <v>239.122706112642</v>
+        <v>130.38751556964</v>
       </c>
       <c r="S4">
-        <v>0.0944323419711762</v>
+        <v>0.05447433723914658</v>
       </c>
       <c r="T4">
-        <v>0.09443234197117623</v>
+        <v>0.0544743372391466</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.3806263333333333</v>
+        <v>0.219276</v>
       </c>
       <c r="H5">
-        <v>1.141879</v>
+        <v>0.6578280000000001</v>
       </c>
       <c r="I5">
-        <v>0.3809735272077954</v>
+        <v>0.2435782033076793</v>
       </c>
       <c r="J5">
-        <v>0.3809735272077954</v>
+        <v>0.2435782033076794</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N5">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O5">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P5">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q5">
-        <v>7.750066245967556</v>
+        <v>3.762959255460001</v>
       </c>
       <c r="R5">
-        <v>69.75059621370801</v>
+        <v>33.86663329914001</v>
       </c>
       <c r="S5">
-        <v>0.02754532290732584</v>
+        <v>0.01414907244326258</v>
       </c>
       <c r="T5">
-        <v>0.02754532290732584</v>
+        <v>0.01414907244326258</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.3806263333333333</v>
+        <v>0.219276</v>
       </c>
       <c r="H6">
-        <v>1.141879</v>
+        <v>0.6578280000000001</v>
       </c>
       <c r="I6">
-        <v>0.3809735272077954</v>
+        <v>0.2435782033076793</v>
       </c>
       <c r="J6">
-        <v>0.3809735272077954</v>
+        <v>0.2435782033076794</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N6">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O6">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P6">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q6">
-        <v>11.53383595863078</v>
+        <v>7.250659959372001</v>
       </c>
       <c r="R6">
-        <v>103.804523627677</v>
+        <v>65.25593963434801</v>
       </c>
       <c r="S6">
-        <v>0.04099361550695329</v>
+        <v>0.02726314744911493</v>
       </c>
       <c r="T6">
-        <v>0.0409936155069533</v>
+        <v>0.02726314744911494</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.3806263333333333</v>
+        <v>0.219276</v>
       </c>
       <c r="H7">
-        <v>1.141879</v>
+        <v>0.6578280000000001</v>
       </c>
       <c r="I7">
-        <v>0.3809735272077954</v>
+        <v>0.2435782033076793</v>
       </c>
       <c r="J7">
-        <v>0.3809735272077954</v>
+        <v>0.2435782033076794</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N7">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O7">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P7">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q7">
-        <v>30.36021097363723</v>
+        <v>19.646050177344</v>
       </c>
       <c r="R7">
-        <v>273.241898762735</v>
+        <v>176.814451596096</v>
       </c>
       <c r="S7">
-        <v>0.1079064085727656</v>
+        <v>0.07387095323444613</v>
       </c>
       <c r="T7">
-        <v>0.1079064085727656</v>
+        <v>0.07387095323444615</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>0.541751</v>
       </c>
       <c r="I8">
-        <v>0.1807483886982336</v>
+        <v>0.2005976261578081</v>
       </c>
       <c r="J8">
-        <v>0.1807483886982337</v>
+        <v>0.2005976261578081</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N8">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O8">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P8">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q8">
-        <v>1.806044398077889</v>
+        <v>3.278141260261</v>
       </c>
       <c r="R8">
-        <v>16.254399582701</v>
+        <v>29.503271342349</v>
       </c>
       <c r="S8">
-        <v>0.006419051728223207</v>
+        <v>0.0123261122488585</v>
       </c>
       <c r="T8">
-        <v>0.006419051728223208</v>
+        <v>0.0123261122488585</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>0.541751</v>
       </c>
       <c r="I9">
-        <v>0.1807483886982336</v>
+        <v>0.2005976261578081</v>
       </c>
       <c r="J9">
-        <v>0.1807483886982337</v>
+        <v>0.2005976261578081</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>214.143257</v>
       </c>
       <c r="O9">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P9">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q9">
         <v>12.89025818033411</v>
@@ -1013,10 +1013,10 @@
         <v>116.012323623007</v>
       </c>
       <c r="S9">
-        <v>0.04581461792289148</v>
+        <v>0.04846855477939791</v>
       </c>
       <c r="T9">
-        <v>0.04581461792289149</v>
+        <v>0.04846855477939792</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>0.541751</v>
       </c>
       <c r="I10">
-        <v>0.1807483886982336</v>
+        <v>0.2005976261578081</v>
       </c>
       <c r="J10">
-        <v>0.1807483886982337</v>
+        <v>0.2005976261578081</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N10">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O10">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P10">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q10">
-        <v>12.60543806978867</v>
+        <v>11.93111048740333</v>
       </c>
       <c r="R10">
-        <v>113.448942628098</v>
+        <v>107.37999438663</v>
       </c>
       <c r="S10">
-        <v>0.04480230890946123</v>
+        <v>0.04486207135245823</v>
       </c>
       <c r="T10">
-        <v>0.04480230890946123</v>
+        <v>0.04486207135245825</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>0.541751</v>
       </c>
       <c r="I11">
-        <v>0.1807483886982336</v>
+        <v>0.2005976261578081</v>
       </c>
       <c r="J11">
-        <v>0.1807483886982337</v>
+        <v>0.2005976261578081</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N11">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O11">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P11">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q11">
-        <v>3.676927361672444</v>
+        <v>3.098966507361667</v>
       </c>
       <c r="R11">
-        <v>33.092346255052</v>
+        <v>27.890698566255</v>
       </c>
       <c r="S11">
-        <v>0.01306855299936918</v>
+        <v>0.01165239872004528</v>
       </c>
       <c r="T11">
-        <v>0.01306855299936918</v>
+        <v>0.01165239872004528</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>0.541751</v>
       </c>
       <c r="I12">
-        <v>0.1807483886982336</v>
+        <v>0.2005976261578081</v>
       </c>
       <c r="J12">
-        <v>0.1807483886982337</v>
+        <v>0.2005976261578081</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N12">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O12">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P12">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q12">
-        <v>5.472092195779222</v>
+        <v>5.971245194260112</v>
       </c>
       <c r="R12">
-        <v>49.248829762013</v>
+        <v>53.74120674834099</v>
       </c>
       <c r="S12">
-        <v>0.01944893652874556</v>
+        <v>0.0224524304129734</v>
       </c>
       <c r="T12">
-        <v>0.01944893652874556</v>
+        <v>0.0224524304129734</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>0.541751</v>
       </c>
       <c r="I13">
-        <v>0.1807483886982336</v>
+        <v>0.2005976261578081</v>
       </c>
       <c r="J13">
-        <v>0.1807483886982337</v>
+        <v>0.2005976261578081</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N13">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O13">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P13">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q13">
-        <v>14.40404338391278</v>
+        <v>16.17940758013689</v>
       </c>
       <c r="R13">
-        <v>129.636390455215</v>
+        <v>145.614668221232</v>
       </c>
       <c r="S13">
-        <v>0.05119492060954298</v>
+        <v>0.06083605864407478</v>
       </c>
       <c r="T13">
-        <v>0.051194920609543</v>
+        <v>0.06083605864407478</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.01430366666666667</v>
+        <v>0.08009666666666666</v>
       </c>
       <c r="H14">
-        <v>0.042911</v>
+        <v>0.24029</v>
       </c>
       <c r="I14">
-        <v>0.01431671396532707</v>
+        <v>0.08897372333315436</v>
       </c>
       <c r="J14">
-        <v>0.01431671396532707</v>
+        <v>0.08897372333315437</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N14">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O14">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P14">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q14">
-        <v>0.1430531206512222</v>
+        <v>1.45399743319</v>
       </c>
       <c r="R14">
-        <v>1.287478085861</v>
+        <v>13.08597689871</v>
       </c>
       <c r="S14">
-        <v>0.0005084400927913119</v>
+        <v>0.005467163904225759</v>
       </c>
       <c r="T14">
-        <v>0.000508440092791312</v>
+        <v>0.005467163904225761</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.01430366666666667</v>
+        <v>0.08009666666666666</v>
       </c>
       <c r="H15">
-        <v>0.042911</v>
+        <v>0.24029</v>
       </c>
       <c r="I15">
-        <v>0.01431671396532707</v>
+        <v>0.08897372333315436</v>
       </c>
       <c r="J15">
-        <v>0.01431671396532707</v>
+        <v>0.08897372333315437</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>214.143257</v>
       </c>
       <c r="O15">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P15">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q15">
-        <v>1.021011255680778</v>
+        <v>5.717387024947778</v>
       </c>
       <c r="R15">
-        <v>9.189101301127002</v>
+        <v>51.45648322453</v>
       </c>
       <c r="S15">
-        <v>0.003628883139466649</v>
+        <v>0.02149790037847927</v>
       </c>
       <c r="T15">
-        <v>0.00362888313946665</v>
+        <v>0.02149790037847928</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.01430366666666667</v>
+        <v>0.08009666666666666</v>
       </c>
       <c r="H16">
-        <v>0.042911</v>
+        <v>0.24029</v>
       </c>
       <c r="I16">
-        <v>0.01431671396532707</v>
+        <v>0.08897372333315436</v>
       </c>
       <c r="J16">
-        <v>0.01431671396532707</v>
+        <v>0.08897372333315437</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N16">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O16">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P16">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q16">
-        <v>0.9984512313086668</v>
+        <v>5.291963538633333</v>
       </c>
       <c r="R16">
-        <v>8.986061081778001</v>
+        <v>47.62767184770001</v>
       </c>
       <c r="S16">
-        <v>0.003548700191811166</v>
+        <v>0.01989826899310235</v>
       </c>
       <c r="T16">
-        <v>0.003548700191811166</v>
+        <v>0.01989826899310235</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.01430366666666667</v>
+        <v>0.08009666666666666</v>
       </c>
       <c r="H17">
-        <v>0.042911</v>
+        <v>0.24029</v>
       </c>
       <c r="I17">
-        <v>0.01431671396532707</v>
+        <v>0.08897372333315436</v>
       </c>
       <c r="J17">
-        <v>0.01431671396532707</v>
+        <v>0.08897372333315437</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N17">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O17">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P17">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q17">
-        <v>0.2912419728191111</v>
+        <v>1.374525680716667</v>
       </c>
       <c r="R17">
-        <v>2.621177755372</v>
+        <v>12.37073112645</v>
       </c>
       <c r="S17">
-        <v>0.001035133627360043</v>
+        <v>0.005168342815130345</v>
       </c>
       <c r="T17">
-        <v>0.001035133627360044</v>
+        <v>0.005168342815130346</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.01430366666666667</v>
+        <v>0.08009666666666666</v>
       </c>
       <c r="H18">
-        <v>0.042911</v>
+        <v>0.24029</v>
       </c>
       <c r="I18">
-        <v>0.01431671396532707</v>
+        <v>0.08897372333315436</v>
       </c>
       <c r="J18">
-        <v>0.01431671396532707</v>
+        <v>0.08897372333315437</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N18">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O18">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P18">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q18">
-        <v>0.4334333452325556</v>
+        <v>2.648505508487778</v>
       </c>
       <c r="R18">
-        <v>3.900900107093</v>
+        <v>23.83654957639</v>
       </c>
       <c r="S18">
-        <v>0.001540510890399835</v>
+        <v>0.009958623987650005</v>
       </c>
       <c r="T18">
-        <v>0.001540510890399835</v>
+        <v>0.009958623987650005</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.01430366666666667</v>
+        <v>0.08009666666666666</v>
       </c>
       <c r="H19">
-        <v>0.042911</v>
+        <v>0.24029</v>
       </c>
       <c r="I19">
-        <v>0.01431671396532707</v>
+        <v>0.08897372333315436</v>
       </c>
       <c r="J19">
-        <v>0.01431671396532707</v>
+        <v>0.08897372333315437</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N19">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O19">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P19">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q19">
-        <v>1.140915117179444</v>
+        <v>7.176267044142222</v>
       </c>
       <c r="R19">
-        <v>10.268236054615</v>
+        <v>64.58640339728001</v>
       </c>
       <c r="S19">
-        <v>0.004055046023498063</v>
+        <v>0.02698342325456663</v>
       </c>
       <c r="T19">
-        <v>0.004055046023498064</v>
+        <v>0.02698342325456664</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.423575</v>
+        <v>0.3713276666666667</v>
       </c>
       <c r="H20">
-        <v>1.270725</v>
+        <v>1.113983</v>
       </c>
       <c r="I20">
-        <v>0.4239613701286439</v>
+        <v>0.4124816481744446</v>
       </c>
       <c r="J20">
-        <v>0.423961370128644</v>
+        <v>0.4124816481744446</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N20">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O20">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P20">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q20">
-        <v>4.236237252441667</v>
+        <v>6.740723386813</v>
       </c>
       <c r="R20">
-        <v>38.126135271975</v>
+        <v>60.666510481317</v>
       </c>
       <c r="S20">
-        <v>0.01505645491627415</v>
+        <v>0.0253457390965963</v>
       </c>
       <c r="T20">
-        <v>0.01505645491627415</v>
+        <v>0.0253457390965963</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.423575</v>
+        <v>0.3713276666666667</v>
       </c>
       <c r="H21">
-        <v>1.270725</v>
+        <v>1.113983</v>
       </c>
       <c r="I21">
-        <v>0.4239613701286439</v>
+        <v>0.4124816481744446</v>
       </c>
       <c r="J21">
-        <v>0.423961370128644</v>
+        <v>0.4124816481744446</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>214.143257</v>
       </c>
       <c r="O21">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P21">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q21">
-        <v>30.23524336125833</v>
+        <v>26.50577198473677</v>
       </c>
       <c r="R21">
-        <v>272.117190251325</v>
+        <v>238.551947862631</v>
       </c>
       <c r="S21">
-        <v>0.1074622480808827</v>
+        <v>0.0996641373228993</v>
       </c>
       <c r="T21">
-        <v>0.1074622480808827</v>
+        <v>0.09966413732289932</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.423575</v>
+        <v>0.3713276666666667</v>
       </c>
       <c r="H22">
-        <v>1.270725</v>
+        <v>1.113983</v>
       </c>
       <c r="I22">
-        <v>0.4239613701286439</v>
+        <v>0.4124816481744446</v>
       </c>
       <c r="J22">
-        <v>0.423961370128644</v>
+        <v>0.4124816481744446</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N22">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O22">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P22">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q22">
-        <v>29.56717254095</v>
+        <v>24.53351125164333</v>
       </c>
       <c r="R22">
-        <v>266.10455286855</v>
+        <v>220.80160126479</v>
       </c>
       <c r="S22">
-        <v>0.1050877875425705</v>
+        <v>0.09224825580649686</v>
       </c>
       <c r="T22">
-        <v>0.1050877875425705</v>
+        <v>0.09224825580649688</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.423575</v>
+        <v>0.3713276666666667</v>
       </c>
       <c r="H23">
-        <v>1.270725</v>
+        <v>1.113983</v>
       </c>
       <c r="I23">
-        <v>0.4239613701286439</v>
+        <v>0.4124816481744446</v>
       </c>
       <c r="J23">
-        <v>0.423961370128644</v>
+        <v>0.4124816481744446</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N23">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O23">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P23">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q23">
-        <v>8.624559108633335</v>
+        <v>6.372292818601667</v>
       </c>
       <c r="R23">
-        <v>77.6210319777</v>
+        <v>57.350635367415</v>
       </c>
       <c r="S23">
-        <v>0.03065344966621825</v>
+        <v>0.02396040631831265</v>
       </c>
       <c r="T23">
-        <v>0.03065344966621825</v>
+        <v>0.02396040631831265</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,14 +1892,14 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>26</v>
-      </c>
       <c r="E24">
         <v>3</v>
       </c>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.423575</v>
+        <v>0.3713276666666667</v>
       </c>
       <c r="H24">
-        <v>1.270725</v>
+        <v>1.113983</v>
       </c>
       <c r="I24">
-        <v>0.4239613701286439</v>
+        <v>0.4124816481744446</v>
       </c>
       <c r="J24">
-        <v>0.423961370128644</v>
+        <v>0.4124816481744446</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N24">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O24">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P24">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q24">
-        <v>12.83527737924167</v>
+        <v>12.27845566549478</v>
       </c>
       <c r="R24">
-        <v>115.517496413175</v>
+        <v>110.506100989453</v>
       </c>
       <c r="S24">
-        <v>0.04561920489392766</v>
+        <v>0.04616812112711438</v>
       </c>
       <c r="T24">
-        <v>0.04561920489392766</v>
+        <v>0.04616812112711438</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3713276666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.113983</v>
+      </c>
+      <c r="I25">
+        <v>0.4124816481744446</v>
+      </c>
+      <c r="J25">
+        <v>0.4124816481744446</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>89.59507733333334</v>
+      </c>
+      <c r="N25">
+        <v>268.785232</v>
+      </c>
+      <c r="O25">
+        <v>0.3032740706323996</v>
+      </c>
+      <c r="P25">
+        <v>0.3032740706323996</v>
+      </c>
+      <c r="Q25">
+        <v>33.26913101100622</v>
+      </c>
+      <c r="R25">
+        <v>299.422179099056</v>
+      </c>
+      <c r="S25">
+        <v>0.1250949885030251</v>
+      </c>
+      <c r="T25">
+        <v>0.1250949885030251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.03561566666666666</v>
+      </c>
+      <c r="H26">
+        <v>0.106847</v>
+      </c>
+      <c r="I26">
+        <v>0.03956292570218296</v>
+      </c>
+      <c r="J26">
+        <v>0.03956292570218296</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>18.153033</v>
+      </c>
+      <c r="N26">
+        <v>54.459099</v>
+      </c>
+      <c r="O26">
+        <v>0.06144694972193577</v>
+      </c>
+      <c r="P26">
+        <v>0.06144694972193578</v>
+      </c>
+      <c r="Q26">
+        <v>0.646532372317</v>
+      </c>
+      <c r="R26">
+        <v>5.818791350853</v>
+      </c>
+      <c r="S26">
+        <v>0.002431021106474716</v>
+      </c>
+      <c r="T26">
+        <v>0.002431021106474717</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.03561566666666666</v>
+      </c>
+      <c r="H27">
+        <v>0.106847</v>
+      </c>
+      <c r="I27">
+        <v>0.03956292570218296</v>
+      </c>
+      <c r="J27">
+        <v>0.03956292570218296</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>71.38108566666666</v>
+      </c>
+      <c r="N27">
+        <v>214.143257</v>
+      </c>
+      <c r="O27">
+        <v>0.2416207794067722</v>
+      </c>
+      <c r="P27">
+        <v>0.2416207794067722</v>
+      </c>
+      <c r="Q27">
+        <v>2.542284953408777</v>
+      </c>
+      <c r="R27">
+        <v>22.880564580679</v>
+      </c>
+      <c r="S27">
+        <v>0.009559224943773667</v>
+      </c>
+      <c r="T27">
+        <v>0.009559224943773668</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.03561566666666666</v>
+      </c>
+      <c r="H28">
+        <v>0.106847</v>
+      </c>
+      <c r="I28">
+        <v>0.03956292570218296</v>
+      </c>
+      <c r="J28">
+        <v>0.03956292570218296</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>66.06971</v>
+      </c>
+      <c r="N28">
+        <v>198.20913</v>
+      </c>
+      <c r="O28">
+        <v>0.2236420849624896</v>
+      </c>
+      <c r="P28">
+        <v>0.2236420849624896</v>
+      </c>
+      <c r="Q28">
+        <v>2.353116768123333</v>
+      </c>
+      <c r="R28">
+        <v>21.17805091311</v>
+      </c>
+      <c r="S28">
+        <v>0.008847935191252262</v>
+      </c>
+      <c r="T28">
+        <v>0.008847935191252265</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.03561566666666666</v>
+      </c>
+      <c r="H29">
+        <v>0.106847</v>
+      </c>
+      <c r="I29">
+        <v>0.03956292570218296</v>
+      </c>
+      <c r="J29">
+        <v>0.03956292570218296</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>17.160835</v>
+      </c>
+      <c r="N29">
+        <v>51.482505</v>
+      </c>
+      <c r="O29">
+        <v>0.05808841781048025</v>
+      </c>
+      <c r="P29">
+        <v>0.05808841781048025</v>
+      </c>
+      <c r="Q29">
+        <v>0.6111945790816667</v>
+      </c>
+      <c r="R29">
+        <v>5.500751211735</v>
+      </c>
+      <c r="S29">
+        <v>0.002298147757993391</v>
+      </c>
+      <c r="T29">
+        <v>0.002298147757993392</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.03561566666666666</v>
+      </c>
+      <c r="H30">
+        <v>0.106847</v>
+      </c>
+      <c r="I30">
+        <v>0.03956292570218296</v>
+      </c>
+      <c r="J30">
+        <v>0.03956292570218296</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>33.06636366666667</v>
+      </c>
+      <c r="N30">
+        <v>99.199091</v>
+      </c>
+      <c r="O30">
+        <v>0.1119276974659227</v>
+      </c>
+      <c r="P30">
+        <v>0.1119276974659227</v>
+      </c>
+      <c r="Q30">
+        <v>1.177680586230778</v>
+      </c>
+      <c r="R30">
+        <v>10.599125276077</v>
+      </c>
+      <c r="S30">
+        <v>0.004428187178860709</v>
+      </c>
+      <c r="T30">
+        <v>0.00442818717886071</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.423575</v>
-      </c>
-      <c r="H25">
-        <v>1.270725</v>
-      </c>
-      <c r="I25">
-        <v>0.4239613701286439</v>
-      </c>
-      <c r="J25">
-        <v>0.423961370128644</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>79.76382166666667</v>
-      </c>
-      <c r="N25">
-        <v>239.291465</v>
-      </c>
-      <c r="O25">
-        <v>0.2832386002345773</v>
-      </c>
-      <c r="P25">
-        <v>0.2832386002345773</v>
-      </c>
-      <c r="Q25">
-        <v>33.78596076245834</v>
-      </c>
-      <c r="R25">
-        <v>304.073646862125</v>
-      </c>
-      <c r="S25">
-        <v>0.1200822250287706</v>
-      </c>
-      <c r="T25">
-        <v>0.1200822250287707</v>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.03561566666666666</v>
+      </c>
+      <c r="H31">
+        <v>0.106847</v>
+      </c>
+      <c r="I31">
+        <v>0.03956292570218296</v>
+      </c>
+      <c r="J31">
+        <v>0.03956292570218296</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>89.59507733333334</v>
+      </c>
+      <c r="N31">
+        <v>268.785232</v>
+      </c>
+      <c r="O31">
+        <v>0.3032740706323996</v>
+      </c>
+      <c r="P31">
+        <v>0.3032740706323996</v>
+      </c>
+      <c r="Q31">
+        <v>3.190988409278222</v>
+      </c>
+      <c r="R31">
+        <v>28.718895683504</v>
+      </c>
+      <c r="S31">
+        <v>0.01199840952382821</v>
+      </c>
+      <c r="T31">
+        <v>0.01199840952382821</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G32">
+        <v>0.01332866666666667</v>
+      </c>
+      <c r="H32">
+        <v>0.039986</v>
+      </c>
+      <c r="I32">
+        <v>0.01480587332473058</v>
+      </c>
+      <c r="J32">
+        <v>0.01480587332473058</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>18.153033</v>
+      </c>
+      <c r="N32">
+        <v>54.459099</v>
+      </c>
+      <c r="O32">
+        <v>0.06144694972193577</v>
+      </c>
+      <c r="P32">
+        <v>0.06144694972193578</v>
+      </c>
+      <c r="Q32">
+        <v>0.241955725846</v>
+      </c>
+      <c r="R32">
+        <v>2.177601532614</v>
+      </c>
+      <c r="S32">
+        <v>0.0009097757537740698</v>
+      </c>
+      <c r="T32">
+        <v>0.0009097757537740699</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G33">
+        <v>0.01332866666666667</v>
+      </c>
+      <c r="H33">
+        <v>0.039986</v>
+      </c>
+      <c r="I33">
+        <v>0.01480587332473058</v>
+      </c>
+      <c r="J33">
+        <v>0.01480587332473058</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>71.38108566666666</v>
+      </c>
+      <c r="N33">
+        <v>214.143257</v>
+      </c>
+      <c r="O33">
+        <v>0.2416207794067722</v>
+      </c>
+      <c r="P33">
+        <v>0.2416207794067722</v>
+      </c>
+      <c r="Q33">
+        <v>0.9514146971557778</v>
+      </c>
+      <c r="R33">
+        <v>8.562732274402</v>
+      </c>
+      <c r="S33">
+        <v>0.00357740665251934</v>
+      </c>
+      <c r="T33">
+        <v>0.003577406652519341</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G34">
+        <v>0.01332866666666667</v>
+      </c>
+      <c r="H34">
+        <v>0.039986</v>
+      </c>
+      <c r="I34">
+        <v>0.01480587332473058</v>
+      </c>
+      <c r="J34">
+        <v>0.01480587332473058</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>66.06971</v>
+      </c>
+      <c r="N34">
+        <v>198.20913</v>
+      </c>
+      <c r="O34">
+        <v>0.2236420849624896</v>
+      </c>
+      <c r="P34">
+        <v>0.2236420849624896</v>
+      </c>
+      <c r="Q34">
+        <v>0.8806211413533334</v>
+      </c>
+      <c r="R34">
+        <v>7.925590272180001</v>
+      </c>
+      <c r="S34">
+        <v>0.003311216380033254</v>
+      </c>
+      <c r="T34">
+        <v>0.003311216380033255</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G35">
+        <v>0.01332866666666667</v>
+      </c>
+      <c r="H35">
+        <v>0.039986</v>
+      </c>
+      <c r="I35">
+        <v>0.01480587332473058</v>
+      </c>
+      <c r="J35">
+        <v>0.01480587332473058</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>17.160835</v>
+      </c>
+      <c r="N35">
+        <v>51.482505</v>
+      </c>
+      <c r="O35">
+        <v>0.05808841781048025</v>
+      </c>
+      <c r="P35">
+        <v>0.05808841781048025</v>
+      </c>
+      <c r="Q35">
+        <v>0.2287310494366667</v>
+      </c>
+      <c r="R35">
+        <v>2.05857944493</v>
+      </c>
+      <c r="S35">
+        <v>0.0008600497557359942</v>
+      </c>
+      <c r="T35">
+        <v>0.0008600497557359942</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G36">
+        <v>0.01332866666666667</v>
+      </c>
+      <c r="H36">
+        <v>0.039986</v>
+      </c>
+      <c r="I36">
+        <v>0.01480587332473058</v>
+      </c>
+      <c r="J36">
+        <v>0.01480587332473058</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>33.06636366666667</v>
+      </c>
+      <c r="N36">
+        <v>99.199091</v>
+      </c>
+      <c r="O36">
+        <v>0.1119276974659227</v>
+      </c>
+      <c r="P36">
+        <v>0.1119276974659227</v>
+      </c>
+      <c r="Q36">
+        <v>0.4407305391917778</v>
+      </c>
+      <c r="R36">
+        <v>3.966574852726</v>
+      </c>
+      <c r="S36">
+        <v>0.001657187310209219</v>
+      </c>
+      <c r="T36">
+        <v>0.001657187310209219</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G37">
+        <v>0.01332866666666667</v>
+      </c>
+      <c r="H37">
+        <v>0.039986</v>
+      </c>
+      <c r="I37">
+        <v>0.01480587332473058</v>
+      </c>
+      <c r="J37">
+        <v>0.01480587332473058</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>89.59507733333334</v>
+      </c>
+      <c r="N37">
+        <v>268.785232</v>
+      </c>
+      <c r="O37">
+        <v>0.3032740706323996</v>
+      </c>
+      <c r="P37">
+        <v>0.3032740706323996</v>
+      </c>
+      <c r="Q37">
+        <v>1.194182920750222</v>
+      </c>
+      <c r="R37">
+        <v>10.747646286752</v>
+      </c>
+      <c r="S37">
+        <v>0.004490237472458703</v>
+      </c>
+      <c r="T37">
+        <v>0.004490237472458703</v>
       </c>
     </row>
   </sheetData>
